--- a/Code/Results/Cases/Case_4_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.070540259844989</v>
+        <v>0.359424906531558</v>
       </c>
       <c r="C2">
-        <v>0.1673054044723585</v>
+        <v>0.06656884671737373</v>
       </c>
       <c r="D2">
-        <v>0.201236341272832</v>
+        <v>0.07904258385524088</v>
       </c>
       <c r="E2">
-        <v>1.396375478826926</v>
+        <v>0.4182501562996634</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3640831544260266</v>
+        <v>0.4518826569307635</v>
       </c>
       <c r="H2">
-        <v>0.2808238893243669</v>
+        <v>0.5949968088760471</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.140354773666303</v>
+        <v>0.3497777697612605</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5834913896053178</v>
+        <v>1.210060478625749</v>
       </c>
       <c r="O2">
-        <v>1.309645394806836</v>
+        <v>2.048610096614539</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.929757415397205</v>
+        <v>0.317904575707729</v>
       </c>
       <c r="C3">
-        <v>0.1500470290494746</v>
+        <v>0.06105512680248637</v>
       </c>
       <c r="D3">
-        <v>0.1745634262108524</v>
+        <v>0.0716323076375005</v>
       </c>
       <c r="E3">
-        <v>1.200339952680238</v>
+        <v>0.3649548114872374</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3389203678308519</v>
+        <v>0.4495524980890764</v>
       </c>
       <c r="H3">
-        <v>0.2752506270656028</v>
+        <v>0.5977938548666799</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9935289510864607</v>
+        <v>0.3054756823095772</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6195392200873977</v>
+        <v>1.224854705531824</v>
       </c>
       <c r="O3">
-        <v>1.244238105570503</v>
+        <v>2.04924439589513</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8435816330579939</v>
+        <v>0.2924272579348326</v>
       </c>
       <c r="C4">
-        <v>0.1394536752853668</v>
+        <v>0.05764498115483718</v>
       </c>
       <c r="D4">
-        <v>0.1583324063932139</v>
+        <v>0.06711559542235079</v>
       </c>
       <c r="E4">
-        <v>1.081989170302947</v>
+        <v>0.3323125384665104</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3243952145404094</v>
+        <v>0.4484680340317126</v>
       </c>
       <c r="H4">
-        <v>0.2723883831322809</v>
+        <v>0.5998015819725495</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9035682319321552</v>
+        <v>0.2782250966426147</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6426445201265287</v>
+        <v>1.234398669839506</v>
       </c>
       <c r="O4">
-        <v>1.207200658057658</v>
+        <v>2.050965871826449</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8085144829290414</v>
+        <v>0.2820495452264424</v>
       </c>
       <c r="C5">
-        <v>0.1351356364219072</v>
+        <v>0.05624914768324629</v>
       </c>
       <c r="D5">
-        <v>0.1517503899392665</v>
+        <v>0.06528336908314714</v>
       </c>
       <c r="E5">
-        <v>1.034191318020873</v>
+        <v>0.3190294596897587</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3186924783595586</v>
+        <v>0.4481129601383103</v>
       </c>
       <c r="H5">
-        <v>0.271355670584299</v>
+        <v>0.6006927398412785</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8669395016333112</v>
+        <v>0.2671083427489407</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6522974070881951</v>
+        <v>1.238403581576526</v>
       </c>
       <c r="O5">
-        <v>1.192843694845138</v>
+        <v>2.052001839548367</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8026941758782016</v>
+        <v>0.2803266174429382</v>
       </c>
       <c r="C6">
-        <v>0.1344185034604521</v>
+        <v>0.05601699903039048</v>
       </c>
       <c r="D6">
-        <v>0.1506592717046402</v>
+        <v>0.0649796353125538</v>
       </c>
       <c r="E6">
-        <v>1.026278448965016</v>
+        <v>0.3168249123538089</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3177581568411014</v>
+        <v>0.4480592398341301</v>
       </c>
       <c r="H6">
-        <v>0.2711920639073711</v>
+        <v>0.6008451241508439</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8608587246886543</v>
+        <v>0.2652617057052566</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6539143939138135</v>
+        <v>1.239075578385604</v>
       </c>
       <c r="O6">
-        <v>1.190502807180536</v>
+        <v>2.052194046931561</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8431085231643181</v>
+        <v>0.2922872817239295</v>
       </c>
       <c r="C7">
-        <v>0.1393954479467823</v>
+        <v>0.05762618139168296</v>
       </c>
       <c r="D7">
-        <v>0.1582435142156555</v>
+        <v>0.06709085146442817</v>
       </c>
       <c r="E7">
-        <v>1.081342902428958</v>
+        <v>0.332133323649856</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3243174500330923</v>
+        <v>0.4484628940011248</v>
       </c>
       <c r="H7">
-        <v>0.2723739234198561</v>
+        <v>0.5998133049133116</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9030741402560238</v>
+        <v>0.2780752199615222</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6427737506159534</v>
+        <v>1.234452213229348</v>
       </c>
       <c r="O7">
-        <v>1.207004117495813</v>
+        <v>2.050978489726049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.021932894226609</v>
+        <v>0.3451055298221206</v>
       </c>
       <c r="C8">
-        <v>0.1613527595112032</v>
+        <v>0.06467286445048614</v>
       </c>
       <c r="D8">
-        <v>0.1920063591970518</v>
+        <v>0.07648063112706893</v>
       </c>
       <c r="E8">
-        <v>1.328316464885461</v>
+        <v>0.3998561154256493</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3552050090476939</v>
+        <v>0.4510072186724727</v>
       </c>
       <c r="H8">
-        <v>0.2787816538495775</v>
+        <v>0.5959009637396235</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.08967896336614</v>
+        <v>0.3345127808413793</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5957146135768787</v>
+        <v>1.215065965681181</v>
       </c>
       <c r="O8">
-        <v>1.286414270872513</v>
+        <v>2.048552039981388</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.375532893218264</v>
+        <v>0.4487994091658152</v>
       </c>
       <c r="C9">
-        <v>0.2045383389822319</v>
+        <v>0.07829431017587751</v>
       </c>
       <c r="D9">
-        <v>0.2595952156585781</v>
+        <v>0.09515792090945752</v>
       </c>
       <c r="E9">
-        <v>1.832397142108945</v>
+        <v>0.5333802816029447</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4238981160460895</v>
+        <v>0.4587548462386906</v>
       </c>
       <c r="H9">
-        <v>0.2961312291550087</v>
+        <v>0.5905334960002051</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.457969923098489</v>
+        <v>0.4447869902886339</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5114789093048078</v>
+        <v>1.18070378249717</v>
       </c>
       <c r="O9">
-        <v>1.469296779405028</v>
+        <v>2.05438793540506</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.638362107114631</v>
+        <v>0.5250462244110281</v>
       </c>
       <c r="C10">
-        <v>0.2365013326074603</v>
+        <v>0.08818129690928345</v>
       </c>
       <c r="D10">
-        <v>0.3104239277432441</v>
+        <v>0.1090429298189832</v>
       </c>
       <c r="E10">
-        <v>2.220647152922155</v>
+        <v>0.6320321262224553</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4804976486925625</v>
+        <v>0.466144870125234</v>
       </c>
       <c r="H10">
-        <v>0.3123090460405535</v>
+        <v>0.5879969260191871</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.731289882212991</v>
+        <v>0.525554309126278</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4549931036076238</v>
+        <v>1.157687931628438</v>
       </c>
       <c r="O10">
-        <v>1.623796294916076</v>
+        <v>2.065173260329061</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.758898061725006</v>
+        <v>0.5597451756271994</v>
       </c>
       <c r="C11">
-        <v>0.2511325012889216</v>
+        <v>0.09265288179744857</v>
       </c>
       <c r="D11">
-        <v>0.3338809841924473</v>
+        <v>0.1153954165748274</v>
       </c>
       <c r="E11">
-        <v>2.402649854720053</v>
+        <v>0.6770561027765041</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5078653546898835</v>
+        <v>0.4698790738439556</v>
       </c>
       <c r="H11">
-        <v>0.3205393978158355</v>
+        <v>0.5871489499851918</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.856544616261374</v>
+        <v>0.5622418326533136</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4305891652683274</v>
+        <v>1.147702184904412</v>
       </c>
       <c r="O11">
-        <v>1.699328203425807</v>
+        <v>2.071499467508346</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.804709731200916</v>
+        <v>0.5728864733998194</v>
       </c>
       <c r="C12">
-        <v>0.2566896794600382</v>
+        <v>0.0943423819036866</v>
       </c>
       <c r="D12">
-        <v>0.3428188120239639</v>
+        <v>0.1178061383850491</v>
       </c>
       <c r="E12">
-        <v>2.472485741342851</v>
+        <v>0.6941284512734285</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5184882029424784</v>
+        <v>0.4713469427584585</v>
       </c>
       <c r="H12">
-        <v>0.3237927976345816</v>
+        <v>0.5868718679554377</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.904136678315126</v>
+        <v>0.5761264129855874</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4215448490889253</v>
+        <v>1.143990561707599</v>
       </c>
       <c r="O12">
-        <v>1.728765202365253</v>
+        <v>2.074099859309086</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.79483546426485</v>
+        <v>0.5700561974939546</v>
       </c>
       <c r="C13">
-        <v>0.255492038887084</v>
+        <v>0.09397868719806013</v>
       </c>
       <c r="D13">
-        <v>0.3408913204716413</v>
+        <v>0.1172867165971354</v>
       </c>
       <c r="E13">
-        <v>2.457402188825171</v>
+        <v>0.6904505776565912</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5161884056181805</v>
+        <v>0.4710284138573115</v>
       </c>
       <c r="H13">
-        <v>0.3230858436213424</v>
+        <v>0.5869295837710524</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.893879240150284</v>
+        <v>0.5731364912514323</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4234837582704962</v>
+        <v>1.144786821469196</v>
       </c>
       <c r="O13">
-        <v>1.722386943514209</v>
+        <v>2.073530700321015</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.762663496357135</v>
+        <v>0.5608262893939298</v>
       </c>
       <c r="C14">
-        <v>0.2515893376085927</v>
+        <v>0.09279195424549869</v>
       </c>
       <c r="D14">
-        <v>0.3346151572464464</v>
+        <v>0.115593644563674</v>
       </c>
       <c r="E14">
-        <v>2.408376079515079</v>
+        <v>0.678460189851279</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5087339469318266</v>
+        <v>0.4699987564971195</v>
       </c>
       <c r="H14">
-        <v>0.3208042467983176</v>
+        <v>0.5871252716775359</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.860456647699351</v>
+        <v>0.5633842920200323</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4298410699609851</v>
+        <v>1.147395428569306</v>
       </c>
       <c r="O14">
-        <v>1.701732790638232</v>
+        <v>2.071709295398676</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.742979881519489</v>
+        <v>0.5551728940421583</v>
       </c>
       <c r="C15">
-        <v>0.2492011046654312</v>
+        <v>0.09206455086749088</v>
       </c>
       <c r="D15">
-        <v>0.330778225669988</v>
+        <v>0.1145572620656452</v>
       </c>
       <c r="E15">
-        <v>2.378469864226659</v>
+        <v>0.6711187422276481</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5042024649311259</v>
+        <v>0.4693750763199489</v>
       </c>
       <c r="H15">
-        <v>0.3194248701881008</v>
+        <v>0.5872508710346125</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.84000618073307</v>
+        <v>0.5574097091808596</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4337610997968868</v>
+        <v>1.149002364582373</v>
       </c>
       <c r="O15">
-        <v>1.689192724144505</v>
+        <v>2.070620320822826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630506668065635</v>
+        <v>0.5227788082857785</v>
       </c>
       <c r="C16">
-        <v>0.2355472804632228</v>
+        <v>0.08788854014147773</v>
       </c>
       <c r="D16">
-        <v>0.3088982772977857</v>
+        <v>0.1086285049565419</v>
       </c>
       <c r="E16">
-        <v>2.208872886723029</v>
+        <v>0.6290927966956019</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4787439029095708</v>
+        <v>0.4659083470213403</v>
       </c>
       <c r="H16">
-        <v>0.3117896589626241</v>
+        <v>0.5880585023154481</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.723125079863053</v>
+        <v>0.5231555708439828</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4566148861977393</v>
+        <v>1.158350279089629</v>
       </c>
       <c r="O16">
-        <v>1.618972399178887</v>
+        <v>2.064788452365576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.561776010101909</v>
+        <v>0.5029093309368022</v>
       </c>
       <c r="C17">
-        <v>0.2271968454054729</v>
+        <v>0.08531998713245059</v>
       </c>
       <c r="D17">
-        <v>0.2955662019132035</v>
+        <v>0.1050006418642653</v>
       </c>
       <c r="E17">
-        <v>2.106305097405624</v>
+        <v>0.6033499929091164</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4635588663347363</v>
+        <v>0.4638771905716084</v>
       </c>
       <c r="H17">
-        <v>0.3073366434260834</v>
+        <v>0.5886323379426415</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.651677400950632</v>
+        <v>0.5021276440498923</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.470973459277479</v>
+        <v>1.164209044323753</v>
       </c>
       <c r="O17">
-        <v>1.577293558089224</v>
+        <v>2.061574898130715</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.522333816852523</v>
+        <v>0.4914822669456385</v>
       </c>
       <c r="C18">
-        <v>0.2224022289192789</v>
+        <v>0.08384017365676755</v>
       </c>
       <c r="D18">
-        <v>0.2879290085299147</v>
+        <v>0.1029173927158098</v>
       </c>
       <c r="E18">
-        <v>2.047808373808579</v>
+        <v>0.5885571276782429</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4549756358657078</v>
+        <v>0.4627439643904978</v>
       </c>
       <c r="H18">
-        <v>0.3048566207204146</v>
+        <v>0.5889911856164076</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.610667329502377</v>
+        <v>0.490027885907665</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.479352994685847</v>
+        <v>1.167624426176221</v>
       </c>
       <c r="O18">
-        <v>1.553809891221107</v>
+        <v>2.059860158390023</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.508994010685569</v>
+        <v>0.4876135019271999</v>
       </c>
       <c r="C19">
-        <v>0.2207801825749982</v>
+        <v>0.08333871488579803</v>
       </c>
       <c r="D19">
-        <v>0.285348316951513</v>
+        <v>0.1022126252666169</v>
       </c>
       <c r="E19">
-        <v>2.028083822708879</v>
+        <v>0.5835508233430176</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4520946388734188</v>
+        <v>0.4623662842489296</v>
       </c>
       <c r="H19">
-        <v>0.3040305459953601</v>
+        <v>0.589117629324079</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.59679575455209</v>
+        <v>0.485930261430525</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4822105939671184</v>
+        <v>1.168788639637721</v>
       </c>
       <c r="O19">
-        <v>1.545940377172599</v>
+        <v>2.059302506281625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.569083015664717</v>
+        <v>0.5050243358611795</v>
       </c>
       <c r="C20">
-        <v>0.2280848763628995</v>
+        <v>0.08559366785284794</v>
       </c>
       <c r="D20">
-        <v>0.2969821601666638</v>
+        <v>0.105386482173742</v>
       </c>
       <c r="E20">
-        <v>2.117171151615182</v>
+        <v>0.6060889270657128</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4651595491710196</v>
+        <v>0.4640897821910244</v>
       </c>
       <c r="H20">
-        <v>0.307802187115314</v>
+        <v>0.5885682719684837</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.659274159945625</v>
+        <v>0.504366628635978</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.469432377625977</v>
+        <v>1.163580651027035</v>
       </c>
       <c r="O20">
-        <v>1.58167918702452</v>
+        <v>2.06190315371714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.772108411673855</v>
+        <v>0.5635372983547029</v>
       </c>
       <c r="C21">
-        <v>0.2527351725710929</v>
+        <v>0.09314062975550996</v>
       </c>
       <c r="D21">
-        <v>0.3364570631389796</v>
+        <v>0.1160908006466173</v>
       </c>
       <c r="E21">
-        <v>2.42275018236333</v>
+        <v>0.6819814269385631</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5109162433956556</v>
+        <v>0.4702997295216989</v>
       </c>
       <c r="H21">
-        <v>0.3214705990142619</v>
+        <v>0.587066598188045</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.870269067819009</v>
+        <v>0.5662489750103248</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4279683352765078</v>
+        <v>1.146627323098611</v>
       </c>
       <c r="O21">
-        <v>1.707776089302712</v>
+        <v>2.072238723211171</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.90578710050238</v>
+        <v>0.6017877798340976</v>
       </c>
       <c r="C22">
-        <v>0.2689447047235234</v>
+        <v>0.09805088185791533</v>
       </c>
       <c r="D22">
-        <v>0.3625813185146285</v>
+        <v>0.1231168328913554</v>
       </c>
       <c r="E22">
-        <v>2.627877935251007</v>
+        <v>0.7317149135857619</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5423462469437936</v>
+        <v>0.4746720338893056</v>
       </c>
       <c r="H22">
-        <v>0.3312068650265729</v>
+        <v>0.5863418146724229</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.009119079027016</v>
+        <v>0.6066447363129726</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4020228851095551</v>
+        <v>1.135954031370812</v>
       </c>
       <c r="O22">
-        <v>1.795095527753347</v>
+        <v>2.080187600773087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.83433998309485</v>
+        <v>0.5813721106760283</v>
       </c>
       <c r="C23">
-        <v>0.2602830107711185</v>
+        <v>0.09543222713433863</v>
       </c>
       <c r="D23">
-        <v>0.3486060976936187</v>
+        <v>0.1193641567093096</v>
       </c>
       <c r="E23">
-        <v>2.517850748332052</v>
+        <v>0.7051584682097456</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5254225552332912</v>
+        <v>0.4723096623785352</v>
       </c>
       <c r="H23">
-        <v>0.3259328660502092</v>
+        <v>0.5867051496616824</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.934914884489672</v>
+        <v>0.5850892864551156</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.415760959635878</v>
+        <v>1.141613314381596</v>
       </c>
       <c r="O23">
-        <v>1.748014081730787</v>
+        <v>2.075835682091707</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.565779296288468</v>
+        <v>0.5040681540537832</v>
       </c>
       <c r="C24">
-        <v>0.2276833786461765</v>
+        <v>0.08546994651025841</v>
       </c>
       <c r="D24">
-        <v>0.2963419200125799</v>
+        <v>0.1052120361138691</v>
       </c>
       <c r="E24">
-        <v>2.11225715229746</v>
+        <v>0.6048506332350314</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4644354250161342</v>
+        <v>0.4639935620307796</v>
       </c>
       <c r="H24">
-        <v>0.3075914662533563</v>
+        <v>0.588597146041721</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.65583946127839</v>
+        <v>0.5033544164519697</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.470128713372322</v>
+        <v>1.163864600925862</v>
       </c>
       <c r="O24">
-        <v>1.579694961099079</v>
+        <v>2.061754335811287</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.279438022637862</v>
+        <v>0.4207357945730621</v>
       </c>
       <c r="C25">
-        <v>0.1928265763218349</v>
+        <v>0.07463050427749351</v>
       </c>
       <c r="D25">
-        <v>0.2411302361769145</v>
+        <v>0.09007676381445151</v>
       </c>
       <c r="E25">
-        <v>1.693347151624565</v>
+        <v>0.4971697679488756</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4043291968996954</v>
+        <v>0.4563619330271109</v>
       </c>
       <c r="H25">
-        <v>0.2908748965198527</v>
+        <v>0.5917386144806045</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.357957448174176</v>
+        <v>0.4149984622792999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5333564114703195</v>
+        <v>1.189608226904468</v>
       </c>
       <c r="O25">
-        <v>1.416562407594142</v>
+        <v>2.051670952326134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.359424906531558</v>
+        <v>1.070540259844989</v>
       </c>
       <c r="C2">
-        <v>0.06656884671737373</v>
+        <v>0.1673054044722591</v>
       </c>
       <c r="D2">
-        <v>0.07904258385524088</v>
+        <v>0.2012363412727893</v>
       </c>
       <c r="E2">
-        <v>0.4182501562996634</v>
+        <v>1.396375478826911</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4518826569307635</v>
+        <v>0.3640831544261118</v>
       </c>
       <c r="H2">
-        <v>0.5949968088760471</v>
+        <v>0.2808238893243669</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3497777697612605</v>
+        <v>1.140354773666388</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.210060478625749</v>
+        <v>0.5834913896053693</v>
       </c>
       <c r="O2">
-        <v>2.048610096614539</v>
+        <v>1.309645394806807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.317904575707729</v>
+        <v>0.9297574153970629</v>
       </c>
       <c r="C3">
-        <v>0.06105512680248637</v>
+        <v>0.1500470290492473</v>
       </c>
       <c r="D3">
-        <v>0.0716323076375005</v>
+        <v>0.1745634262109803</v>
       </c>
       <c r="E3">
-        <v>0.3649548114872374</v>
+        <v>1.200339952680238</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4495524980890764</v>
+        <v>0.3389203678308377</v>
       </c>
       <c r="H3">
-        <v>0.5977938548666799</v>
+        <v>0.2752506270656028</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3054756823095772</v>
+        <v>0.9935289510864607</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.224854705531824</v>
+        <v>0.619539220087348</v>
       </c>
       <c r="O3">
-        <v>2.04924439589513</v>
+        <v>1.24423810557056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2924272579348326</v>
+        <v>0.8435816330578803</v>
       </c>
       <c r="C4">
-        <v>0.05764498115483718</v>
+        <v>0.1394536752852389</v>
       </c>
       <c r="D4">
-        <v>0.06711559542235079</v>
+        <v>0.1583324063931997</v>
       </c>
       <c r="E4">
-        <v>0.3323125384665104</v>
+        <v>1.081989170302947</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4484680340317126</v>
+        <v>0.3243952145404378</v>
       </c>
       <c r="H4">
-        <v>0.5998015819725495</v>
+        <v>0.2723883831322738</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2782250966426147</v>
+        <v>0.9035682319321836</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.234398669839506</v>
+        <v>0.642644520126467</v>
       </c>
       <c r="O4">
-        <v>2.050965871826449</v>
+        <v>1.207200658057729</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2820495452264424</v>
+        <v>0.8085144829290698</v>
       </c>
       <c r="C5">
-        <v>0.05624914768324629</v>
+        <v>0.135135636421964</v>
       </c>
       <c r="D5">
-        <v>0.06528336908314714</v>
+        <v>0.1517503899392807</v>
       </c>
       <c r="E5">
-        <v>0.3190294596897587</v>
+        <v>1.03419131802093</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4481129601383103</v>
+        <v>0.3186924783596154</v>
       </c>
       <c r="H5">
-        <v>0.6006927398412785</v>
+        <v>0.271355670584299</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2671083427489407</v>
+        <v>0.8669395016333397</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.238403581576526</v>
+        <v>0.6522974070881884</v>
       </c>
       <c r="O5">
-        <v>2.052001839548367</v>
+        <v>1.192843694845067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2803266174429382</v>
+        <v>0.8026941758783153</v>
       </c>
       <c r="C6">
-        <v>0.05601699903039048</v>
+        <v>0.1344185034603811</v>
       </c>
       <c r="D6">
-        <v>0.0649796353125538</v>
+        <v>0.1506592717046544</v>
       </c>
       <c r="E6">
-        <v>0.3168249123538089</v>
+        <v>1.026278448965016</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4480592398341301</v>
+        <v>0.317758156841137</v>
       </c>
       <c r="H6">
-        <v>0.6008451241508439</v>
+        <v>0.2711920639072574</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2652617057052566</v>
+        <v>0.8608587246887112</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.239075578385604</v>
+        <v>0.653914393913825</v>
       </c>
       <c r="O6">
-        <v>2.052194046931561</v>
+        <v>1.19050280718055</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2922872817239295</v>
+        <v>0.8431085231644033</v>
       </c>
       <c r="C7">
-        <v>0.05762618139168296</v>
+        <v>0.139395447946967</v>
       </c>
       <c r="D7">
-        <v>0.06709085146442817</v>
+        <v>0.1582435142155276</v>
       </c>
       <c r="E7">
-        <v>0.332133323649856</v>
+        <v>1.081342902428986</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4484628940011248</v>
+        <v>0.3243174500330213</v>
       </c>
       <c r="H7">
-        <v>0.5998133049133116</v>
+        <v>0.2723739234198419</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2780752199615222</v>
+        <v>0.9030741402559954</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.234452213229348</v>
+        <v>0.642773750615937</v>
       </c>
       <c r="O7">
-        <v>2.050978489726049</v>
+        <v>1.207004117495856</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3451055298221206</v>
+        <v>1.021932894226609</v>
       </c>
       <c r="C8">
-        <v>0.06467286445048614</v>
+        <v>0.1613527595108195</v>
       </c>
       <c r="D8">
-        <v>0.07648063112706893</v>
+        <v>0.1920063591969381</v>
       </c>
       <c r="E8">
-        <v>0.3998561154256493</v>
+        <v>1.328316464885418</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4510072186724727</v>
+        <v>0.3552050090477366</v>
       </c>
       <c r="H8">
-        <v>0.5959009637396235</v>
+        <v>0.2787816538494781</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3345127808413793</v>
+        <v>1.089678963366055</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.215065965681181</v>
+        <v>0.5957146135768903</v>
       </c>
       <c r="O8">
-        <v>2.048552039981388</v>
+        <v>1.286414270872513</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4487994091658152</v>
+        <v>1.375532893218406</v>
       </c>
       <c r="C9">
-        <v>0.07829431017587751</v>
+        <v>0.2045383389824593</v>
       </c>
       <c r="D9">
-        <v>0.09515792090945752</v>
+        <v>0.2595952156581802</v>
       </c>
       <c r="E9">
-        <v>0.5333802816029447</v>
+        <v>1.832397142108945</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4587548462386906</v>
+        <v>0.4238981160461037</v>
       </c>
       <c r="H9">
-        <v>0.5905334960002051</v>
+        <v>0.2961312291549945</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4447869902886339</v>
+        <v>1.457969923098375</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.18070378249717</v>
+        <v>0.5114789093048024</v>
       </c>
       <c r="O9">
-        <v>2.05438793540506</v>
+        <v>1.469296779404914</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5250462244110281</v>
+        <v>1.638362107114773</v>
       </c>
       <c r="C10">
-        <v>0.08818129690928345</v>
+        <v>0.2365013326075172</v>
       </c>
       <c r="D10">
-        <v>0.1090429298189832</v>
+        <v>0.3104239277433436</v>
       </c>
       <c r="E10">
-        <v>0.6320321262224553</v>
+        <v>2.22064715292214</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.466144870125234</v>
+        <v>0.4804976486926194</v>
       </c>
       <c r="H10">
-        <v>0.5879969260191871</v>
+        <v>0.312309046040653</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.525554309126278</v>
+        <v>1.731289882212906</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.157687931628438</v>
+        <v>0.4549931036076202</v>
       </c>
       <c r="O10">
-        <v>2.065173260329061</v>
+        <v>1.623796294916133</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5597451756271994</v>
+        <v>1.758898061725034</v>
       </c>
       <c r="C11">
-        <v>0.09265288179744857</v>
+        <v>0.2511325012892343</v>
       </c>
       <c r="D11">
-        <v>0.1153954165748274</v>
+        <v>0.3338809841925041</v>
       </c>
       <c r="E11">
-        <v>0.6770561027765041</v>
+        <v>2.402649854720053</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4698790738439556</v>
+        <v>0.5078653546899261</v>
       </c>
       <c r="H11">
-        <v>0.5871489499851918</v>
+        <v>0.3205393978157076</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5622418326533136</v>
+        <v>1.856544616261232</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.147702184904412</v>
+        <v>0.4305891652683371</v>
       </c>
       <c r="O11">
-        <v>2.071499467508346</v>
+        <v>1.699328203425807</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5728864733998194</v>
+        <v>1.804709731200859</v>
       </c>
       <c r="C12">
-        <v>0.0943423819036866</v>
+        <v>0.2566896794598108</v>
       </c>
       <c r="D12">
-        <v>0.1178061383850491</v>
+        <v>0.3428188120240634</v>
       </c>
       <c r="E12">
-        <v>0.6941284512734285</v>
+        <v>2.472485741342865</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4713469427584585</v>
+        <v>0.5184882029425353</v>
       </c>
       <c r="H12">
-        <v>0.5868718679554377</v>
+        <v>0.3237927976346953</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5761264129855874</v>
+        <v>1.904136678315126</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.143990561707599</v>
+        <v>0.4215448490889298</v>
       </c>
       <c r="O12">
-        <v>2.074099859309086</v>
+        <v>1.728765202365253</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5700561974939546</v>
+        <v>1.794835464264679</v>
       </c>
       <c r="C13">
-        <v>0.09397868719806013</v>
+        <v>0.255492038887084</v>
       </c>
       <c r="D13">
-        <v>0.1172867165971354</v>
+        <v>0.3408913204714565</v>
       </c>
       <c r="E13">
-        <v>0.6904505776565912</v>
+        <v>2.457402188825142</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4710284138573115</v>
+        <v>0.5161884056181805</v>
       </c>
       <c r="H13">
-        <v>0.5869295837710524</v>
+        <v>0.3230858436212287</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5731364912514323</v>
+        <v>1.89387924015017</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.144786821469196</v>
+        <v>0.4234837582705548</v>
       </c>
       <c r="O13">
-        <v>2.073530700321015</v>
+        <v>1.722386943514209</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5608262893939298</v>
+        <v>1.762663496357163</v>
       </c>
       <c r="C14">
-        <v>0.09279195424549869</v>
+        <v>0.2515893376081095</v>
       </c>
       <c r="D14">
-        <v>0.115593644563674</v>
+        <v>0.3346151572466596</v>
       </c>
       <c r="E14">
-        <v>0.678460189851279</v>
+        <v>2.408376079515079</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4699987564971195</v>
+        <v>0.5087339469317982</v>
       </c>
       <c r="H14">
-        <v>0.5871252716775359</v>
+        <v>0.320804246798204</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5633842920200323</v>
+        <v>1.860456647699351</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.147395428569306</v>
+        <v>0.4298410699609319</v>
       </c>
       <c r="O14">
-        <v>2.071709295398676</v>
+        <v>1.701732790638147</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5551728940421583</v>
+        <v>1.742979881519432</v>
       </c>
       <c r="C15">
-        <v>0.09206455086749088</v>
+        <v>0.2492011046656586</v>
       </c>
       <c r="D15">
-        <v>0.1145572620656452</v>
+        <v>0.3307782256699312</v>
       </c>
       <c r="E15">
-        <v>0.6711187422276481</v>
+        <v>2.378469864226659</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4693750763199489</v>
+        <v>0.5042024649310974</v>
       </c>
       <c r="H15">
-        <v>0.5872508710346125</v>
+        <v>0.3194248701879872</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5574097091808596</v>
+        <v>1.84000618073307</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.149002364582373</v>
+        <v>0.4337610997968886</v>
       </c>
       <c r="O15">
-        <v>2.070620320822826</v>
+        <v>1.689192724144505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5227788082857785</v>
+        <v>1.630506668065635</v>
       </c>
       <c r="C16">
-        <v>0.08788854014147773</v>
+        <v>0.2355472804633507</v>
       </c>
       <c r="D16">
-        <v>0.1086285049565419</v>
+        <v>0.3088982772975584</v>
       </c>
       <c r="E16">
-        <v>0.6290927966956019</v>
+        <v>2.208872886723057</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4659083470213403</v>
+        <v>0.4787439029095992</v>
       </c>
       <c r="H16">
-        <v>0.5880585023154481</v>
+        <v>0.3117896589626099</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5231555708439828</v>
+        <v>1.723125079863166</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.158350279089629</v>
+        <v>0.4566148861976806</v>
       </c>
       <c r="O16">
-        <v>2.064788452365576</v>
+        <v>1.61897239917883</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5029093309368022</v>
+        <v>1.561776010101966</v>
       </c>
       <c r="C17">
-        <v>0.08531998713245059</v>
+        <v>0.2271968454051319</v>
       </c>
       <c r="D17">
-        <v>0.1050006418642653</v>
+        <v>0.2955662019134451</v>
       </c>
       <c r="E17">
-        <v>0.6033499929091164</v>
+        <v>2.10630509740561</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4638771905716084</v>
+        <v>0.4635588663348216</v>
       </c>
       <c r="H17">
-        <v>0.5886323379426415</v>
+        <v>0.3073366434259555</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5021276440498923</v>
+        <v>1.651677400950774</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.164209044323753</v>
+        <v>0.4709734592774835</v>
       </c>
       <c r="O17">
-        <v>2.061574898130715</v>
+        <v>1.577293558089195</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4914822669456385</v>
+        <v>1.522333816852495</v>
       </c>
       <c r="C18">
-        <v>0.08384017365676755</v>
+        <v>0.2224022289192078</v>
       </c>
       <c r="D18">
-        <v>0.1029173927158098</v>
+        <v>0.2879290085297015</v>
       </c>
       <c r="E18">
-        <v>0.5885571276782429</v>
+        <v>2.047808373808593</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4627439643904978</v>
+        <v>0.4549756358656794</v>
       </c>
       <c r="H18">
-        <v>0.5889911856164076</v>
+        <v>0.3048566207205283</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.490027885907665</v>
+        <v>1.61066732950232</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.167624426176221</v>
+        <v>0.4793529946858444</v>
       </c>
       <c r="O18">
-        <v>2.059860158390023</v>
+        <v>1.55380989122105</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4876135019271999</v>
+        <v>1.508994010685484</v>
       </c>
       <c r="C19">
-        <v>0.08333871488579803</v>
+        <v>0.2207801825750977</v>
       </c>
       <c r="D19">
-        <v>0.1022126252666169</v>
+        <v>0.2853483169516835</v>
       </c>
       <c r="E19">
-        <v>0.5835508233430176</v>
+        <v>2.028083822708879</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4623662842489296</v>
+        <v>0.4520946388734046</v>
       </c>
       <c r="H19">
-        <v>0.589117629324079</v>
+        <v>0.3040305459953601</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.485930261430525</v>
+        <v>1.596795754552261</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.168788639637721</v>
+        <v>0.4822105939671228</v>
       </c>
       <c r="O19">
-        <v>2.059302506281625</v>
+        <v>1.54594037717257</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5050243358611795</v>
+        <v>1.569083015664859</v>
       </c>
       <c r="C20">
-        <v>0.08559366785284794</v>
+        <v>0.228084876362658</v>
       </c>
       <c r="D20">
-        <v>0.105386482173742</v>
+        <v>0.2969821601666638</v>
       </c>
       <c r="E20">
-        <v>0.6060889270657128</v>
+        <v>2.117171151615253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4640897821910244</v>
+        <v>0.4651595491709628</v>
       </c>
       <c r="H20">
-        <v>0.5885682719684837</v>
+        <v>0.307802187115314</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.504366628635978</v>
+        <v>1.659274159945767</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.163580651027035</v>
+        <v>0.4694323776259699</v>
       </c>
       <c r="O20">
-        <v>2.06190315371714</v>
+        <v>1.581679187024491</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5635372983547029</v>
+        <v>1.772108411673713</v>
       </c>
       <c r="C21">
-        <v>0.09314062975550996</v>
+        <v>0.2527351725705529</v>
       </c>
       <c r="D21">
-        <v>0.1160908006466173</v>
+        <v>0.3364570631390507</v>
       </c>
       <c r="E21">
-        <v>0.6819814269385631</v>
+        <v>2.422750182363345</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4702997295216989</v>
+        <v>0.5109162433956982</v>
       </c>
       <c r="H21">
-        <v>0.587066598188045</v>
+        <v>0.3214705990143898</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5662489750103248</v>
+        <v>1.870269067819038</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.146627323098611</v>
+        <v>0.4279683352765726</v>
       </c>
       <c r="O21">
-        <v>2.072238723211171</v>
+        <v>1.707776089302797</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6017877798340976</v>
+        <v>1.905787100502408</v>
       </c>
       <c r="C22">
-        <v>0.09805088185791533</v>
+        <v>0.2689447047239923</v>
       </c>
       <c r="D22">
-        <v>0.1231168328913554</v>
+        <v>0.3625813185145716</v>
       </c>
       <c r="E22">
-        <v>0.7317149135857619</v>
+        <v>2.627877935251007</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4746720338893056</v>
+        <v>0.5423462469437936</v>
       </c>
       <c r="H22">
-        <v>0.5863418146724229</v>
+        <v>0.3312068650265729</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6066447363129726</v>
+        <v>2.009119079027073</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.135954031370812</v>
+        <v>0.4020228851096173</v>
       </c>
       <c r="O22">
-        <v>2.080187600773087</v>
+        <v>1.79509552775329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5813721106760283</v>
+        <v>1.834339983094992</v>
       </c>
       <c r="C23">
-        <v>0.09543222713433863</v>
+        <v>0.260283010771218</v>
       </c>
       <c r="D23">
-        <v>0.1193641567093096</v>
+        <v>0.3486060976935619</v>
       </c>
       <c r="E23">
-        <v>0.7051584682097456</v>
+        <v>2.517850748332052</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4723096623785352</v>
+        <v>0.5254225552332201</v>
       </c>
       <c r="H23">
-        <v>0.5867051496616824</v>
+        <v>0.3259328660500955</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5850892864551156</v>
+        <v>1.934914884489615</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.141613314381596</v>
+        <v>0.4157609596358878</v>
       </c>
       <c r="O23">
-        <v>2.075835682091707</v>
+        <v>1.748014081730759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5040681540537832</v>
+        <v>1.565779296288383</v>
       </c>
       <c r="C24">
-        <v>0.08546994651025841</v>
+        <v>0.2276833786456791</v>
       </c>
       <c r="D24">
-        <v>0.1052120361138691</v>
+        <v>0.2963419200126935</v>
       </c>
       <c r="E24">
-        <v>0.6048506332350314</v>
+        <v>2.112257152297488</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4639935620307796</v>
+        <v>0.4644354250162053</v>
       </c>
       <c r="H24">
-        <v>0.588597146041721</v>
+        <v>0.3075914662533563</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5033544164519697</v>
+        <v>1.65583946127839</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.163864600925862</v>
+        <v>0.4701287133723184</v>
       </c>
       <c r="O24">
-        <v>2.061754335811287</v>
+        <v>1.579694961099079</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4207357945730621</v>
+        <v>1.279438022637777</v>
       </c>
       <c r="C25">
-        <v>0.07463050427749351</v>
+        <v>0.192826576322048</v>
       </c>
       <c r="D25">
-        <v>0.09007676381445151</v>
+        <v>0.2411302361769287</v>
       </c>
       <c r="E25">
-        <v>0.4971697679488756</v>
+        <v>1.693347151624593</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4563619330271109</v>
+        <v>0.4043291968996385</v>
       </c>
       <c r="H25">
-        <v>0.5917386144806045</v>
+        <v>0.2908748965198669</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4149984622792999</v>
+        <v>1.35795744817392</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.189608226904468</v>
+        <v>0.5333564114703275</v>
       </c>
       <c r="O25">
-        <v>2.051670952326134</v>
+        <v>1.416562407594029</v>
       </c>
     </row>
   </sheetData>
